--- a/arranged_dataset/cbstestdata.xlsx
+++ b/arranged_dataset/cbstestdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>smiles</t>
   </si>
@@ -182,12 +182,6 @@
   </si>
   <si>
     <t>JZPMYKCRIIKJGT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[Si](OC[C@@H](CCC([C@H](/C=C(\C)/I)C)=O)C)(C(C)(C)C)(C)C</t>
-  </si>
-  <si>
-    <t>FNFDEQFHYPDXMX-YICFRCMRSA-N</t>
   </si>
 </sst>
 </file>
@@ -1139,44 +1133,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="29327475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="30594300"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1474,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2061,29 +2017,6 @@
         <v>2.496390760982619</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="100" customHeight="1">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <v>0.59302</v>
-      </c>
-      <c r="F26">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="G26">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H26">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
